--- a/fundData/沪深300被动指数型基金数据.xlsx
+++ b/fundData/沪深300被动指数型基金数据.xlsx
@@ -1630,12 +1630,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>008391</t>
+          <t>011132</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>国联安沪深300ETF联接C</t>
+          <t>鹏扬沪深300质量成长低波动A</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2019-12-25</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1655,12 +1655,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>011132</t>
+          <t>008391</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>鹏扬沪深300质量成长低波动A</t>
+          <t>国联安沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1730,18 +1730,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>021039</t>
+          <t>161211</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>银华沪深300价值ETF发起式联接C</t>
+          <t>国投沪深300金融地产联接</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>1.51</v>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2010-04-09</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -1751,22 +1755,18 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>161211</t>
+          <t>021039</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>国投沪深300金融地产联接</t>
+          <t>银华沪深300价值ETF发起式联接C</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>1.51</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2010-04-09</t>
-        </is>
-      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>被动指数型</t>

--- a/fundData/沪深300被动指数型基金数据.xlsx
+++ b/fundData/沪深300被动指数型基金数据.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>135.72</v>
+        <v>131.25</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105.04</v>
+        <v>103.36</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>74.26000000000001</v>
+        <v>73.16</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -538,20 +538,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>007339</t>
+          <t>005918</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>易方达沪深300ETF联接C</t>
+          <t>天弘沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68.98</v>
+        <v>59.79</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2018-04-24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -563,20 +563,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>005918</t>
+          <t>007339</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>天弘沪深300ETF联接C</t>
+          <t>易方达沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68.11</v>
+        <v>56.21</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2018-04-24</t>
+          <t>2019-04-25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.58</v>
+        <v>48.51</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44.62</v>
+        <v>44.2</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -638,20 +638,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>270010</t>
+          <t>002987</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>广发沪深300ETF联接A</t>
+          <t>广发沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.89</v>
+        <v>33.56</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2008-12-30</t>
+          <t>2016-07-06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -663,20 +663,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>002987</t>
+          <t>000961</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>广发沪深300ETF联接C</t>
+          <t>天弘沪深300ETF联接A</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.56</v>
+        <v>30.77</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2016-07-06</t>
+          <t>2015-01-20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -688,20 +688,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>000961</t>
+          <t>270010</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>天弘沪深300ETF联接A</t>
+          <t>广发沪深300ETF联接A</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>32.33</v>
+        <v>25.89</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2015-01-20</t>
+          <t>2008-12-30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26.66</v>
+        <v>23.24</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -738,20 +738,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>000368</t>
+          <t>519671</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>汇添富沪深300安中指数A</t>
+          <t>银河沪深300价值指数A</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.94</v>
+        <v>21.89</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2013-11-06</t>
+          <t>2009-12-28</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -763,20 +763,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>519671</t>
+          <t>007605</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数A</t>
+          <t>嘉实沪深300红利低波动ETF联接A</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.07</v>
+        <v>19.2</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2009-12-28</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -788,20 +788,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>310398</t>
+          <t>005658</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数A</t>
+          <t>华夏沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>21.55</v>
+        <v>18.58</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2010-02-11</t>
+          <t>2018-02-02</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -813,20 +813,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>005658</t>
+          <t>310398</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接C</t>
+          <t>申万菱信沪深300价值指数A</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.74</v>
+        <v>16.24</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2018-02-02</t>
+          <t>2010-02-11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -838,20 +838,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>160615</t>
+          <t>000368</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>鹏华沪深300ETF联接(LOF)A</t>
+          <t>汇添富沪深300安中指数A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19.23</v>
+        <v>15.25</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2009-04-03</t>
+          <t>2013-11-06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -863,20 +863,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>007605</t>
+          <t>481009</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF联接A</t>
+          <t>工银沪深300指数A</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>18.3</v>
+        <v>14.31</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2009-03-05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -888,20 +888,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>000950</t>
+          <t>007606</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>易方达沪深300非银联接A</t>
+          <t>嘉实沪深300红利低波动ETF联接C</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15.47</v>
+        <v>14.12</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2015-01-22</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -913,20 +913,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>000613</t>
+          <t>000950</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>国寿安保沪深300ETF联接A</t>
+          <t>易方达沪深300非银联接A</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>14.94</v>
+        <v>13.93</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2014-06-05</t>
+          <t>2015-01-22</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -938,20 +938,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>481009</t>
+          <t>160615</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>工银沪深300指数A</t>
+          <t>鹏华沪深300ETF联接(LOF)A</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>14.86</v>
+        <v>13.67</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2009-03-05</t>
+          <t>2009-04-03</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -963,20 +963,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>007606</t>
+          <t>002385</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF联接C</t>
+          <t>博时沪深300指数C</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14.79</v>
+        <v>12.28</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2016-01-26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -988,20 +988,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>002385</t>
+          <t>000613</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>博时沪深300指数C</t>
+          <t>国寿安保沪深300ETF联接A</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>12.86</v>
+        <v>12.13</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2016-01-26</t>
+          <t>2014-06-05</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1013,20 +1013,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>006131</t>
+          <t>020011</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>华泰柏瑞沪深300ETF联接C</t>
+          <t>国泰沪深300指数A</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>12.67</v>
+        <v>12.07</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2018-07-02</t>
+          <t>2007-11-11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1038,20 +1038,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>020011</t>
+          <t>519300</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>国泰沪深300指数A</t>
+          <t>大成沪深300指数A</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>12.27</v>
+        <v>11.34</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2007-11-11</t>
+          <t>2006-04-06</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1063,20 +1063,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>519300</t>
+          <t>006600</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>大成沪深300指数A</t>
+          <t>人保沪深300A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>11.65</v>
+        <v>10.74</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2006-04-06</t>
+          <t>2019-02-28</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1088,20 +1088,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>006600</t>
+          <t>006131</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>人保沪深300A</t>
+          <t>华泰柏瑞沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>11.52</v>
+        <v>10.37</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2019-02-28</t>
+          <t>2018-07-02</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.29</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1138,20 +1138,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>007882</t>
+          <t>660008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>易方达沪深300非银联接C</t>
+          <t>农银沪深300指数A</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.390000000000001</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2019-08-20</t>
+          <t>2011-04-12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1163,18 +1163,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>022859</t>
+          <t>013273</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中银沪深300指数A</t>
+          <t>招商沪深300地产等权重指数C</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>8.220000000000001</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2021-08-12</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -1184,20 +1188,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>006939</t>
+          <t>007882</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>鹏华沪深300ETF联接(LOF)C</t>
+          <t>易方达沪深300非银联接C</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.76</v>
+        <v>8.01</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2019-01-22</t>
+          <t>2019-08-20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1209,20 +1213,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>000656</t>
+          <t>006939</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>前海开源沪深300指数A</t>
+          <t>鹏华沪深300ETF联接(LOF)C</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.9</v>
+        <v>5.75</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2014-06-17</t>
+          <t>2019-01-22</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1234,20 +1238,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>013273</t>
+          <t>000656</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数C</t>
+          <t>前海开源沪深300指数A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5.84</v>
+        <v>5.51</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-08-12</t>
+          <t>2014-06-17</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1259,20 +1263,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>007538</t>
+          <t>007800</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>永赢沪深300ETF发起联接A</t>
+          <t>申万菱信沪深300价值指数C</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.68</v>
+        <v>3.98</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2019-07-09</t>
+          <t>2019-08-08</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1284,20 +1288,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>161721</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>农银沪深300指数A</t>
+          <t>招商沪深300地产等权重指数A</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5.6</v>
+        <v>3.95</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2011-04-12</t>
+          <t>2014-11-27</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1309,20 +1313,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>007800</t>
+          <t>007538</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数C</t>
+          <t>永赢沪深300ETF发起联接A</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.2</v>
+        <v>3.83</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2019-08-08</t>
+          <t>2019-07-09</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1334,20 +1338,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>004342</t>
+          <t>501043</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>南方沪深300ETF联接C</t>
+          <t>汇添富沪深300指数(LOF)A</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4.27</v>
+        <v>3.74</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2017-02-23</t>
+          <t>2017-09-06</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1359,20 +1363,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>501043</t>
+          <t>006937</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>汇添富沪深300指数(LOF)A</t>
+          <t>工银沪深300指数C</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.92</v>
+        <v>3.73</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2017-09-06</t>
+          <t>2019-01-23</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1384,20 +1388,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>160724</t>
+          <t>005152</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>嘉实沪深300ETF联接C</t>
+          <t>农银沪深300指数C</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.91</v>
+        <v>3.5</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2018-08-08</t>
+          <t>2018-03-21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1409,20 +1413,20 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>006937</t>
+          <t>165309</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>工银沪深300指数C</t>
+          <t>建信沪深300指数(LOF)</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.66</v>
+        <v>3.48</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2019-01-23</t>
+          <t>2009-11-05</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1434,20 +1438,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>165309</t>
+          <t>160724</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>建信沪深300指数(LOF)</t>
+          <t>嘉实沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.63</v>
+        <v>3.34</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2009-11-05</t>
+          <t>2018-08-08</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1459,20 +1463,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>161721</t>
+          <t>022859</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>招商沪深300地产等权重指数A</t>
+          <t>中银沪深300指数A</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2014-11-27</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1493,7 +1497,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1509,20 +1513,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>018947</t>
+          <t>013074</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>汇添富沪深300安中指数C</t>
+          <t>银河沪深300价值指数C</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.89</v>
+        <v>3.12</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2021-07-26</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1543,7 +1547,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1559,20 +1563,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>013074</t>
+          <t>165515</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数C</t>
+          <t>中信保诚沪深300指数(LOF)A</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.64</v>
+        <v>2.75</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>2012-02-01</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1584,20 +1588,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>011133</t>
+          <t>004342</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>鹏扬沪深300质量成长低波动C</t>
+          <t>南方沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2.56</v>
+        <v>2.7</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>2017-02-23</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1630,16 +1634,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>011132</t>
+          <t>011133</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>鹏扬沪深300质量成长低波动A</t>
+          <t>鹏扬沪深300质量成长低波动C</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1655,20 +1659,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>008391</t>
+          <t>011132</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>国联安沪深300ETF联接C</t>
+          <t>鹏扬沪深300质量成长低波动A</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2019-12-25</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1680,20 +1684,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>007539</t>
+          <t>018947</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>永赢沪深300ETF发起联接C</t>
+          <t>汇添富沪深300安中指数C</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2019-07-09</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1705,20 +1709,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>015671</t>
+          <t>007539</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>前海开源沪深300指数C</t>
+          <t>永赢沪深300ETF发起联接C</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2022-04-29</t>
+          <t>2019-07-09</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1739,7 +1743,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1755,18 +1759,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>021039</t>
+          <t>015671</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>银华沪深300价值ETF发起式联接C</t>
+          <t>前海开源沪深300指数C</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>1.24</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2022-04-29</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -1785,9 +1793,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>1.24</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -1797,20 +1809,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>021833</t>
+          <t>012713</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>富国沪深300ETF发起式联接C</t>
+          <t>建信沪深300红利ETF联接C</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2021-09-08</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1822,20 +1834,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>501045</t>
+          <t>021833</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>汇添富沪深300指数(LOF)C</t>
+          <t>富国沪深300ETF发起式联接C</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2017-09-06</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1847,20 +1859,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>008777</t>
+          <t>501045</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>华安沪深300ETF联接C</t>
+          <t>汇添富沪深300指数(LOF)C</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>2017-09-06</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1872,20 +1884,20 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>008776</t>
+          <t>021877</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>华安沪深300ETF联接A</t>
+          <t>中欧沪深300指数发起A</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2020-08-03</t>
+          <t>2024-11-29</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1897,20 +1909,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>012713</t>
+          <t>008776</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF联接C</t>
+          <t>华安沪深300ETF联接A</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2021-09-08</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1922,20 +1934,20 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>161811</t>
+          <t>008777</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>银华沪深300指数(LOF)</t>
+          <t>华安沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2009-10-14</t>
+          <t>2020-08-03</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1947,18 +1959,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>021038</t>
+          <t>161811</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>银华沪深300价值ETF发起式联接A</t>
+          <t>银华沪深300指数(LOF)</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>0.95</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2009-10-14</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -1977,7 +1993,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2014,18 +2030,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>021877</t>
+          <t>021494</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>中欧沪深300指数发起A</t>
+          <t>长盛沪深300指数(LOF)C</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>0.65</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -2035,20 +2055,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>008927</t>
+          <t>008391</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>泰康沪深300ETF联接C</t>
+          <t>国联安沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2019-12-25</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2060,20 +2080,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>007096</t>
+          <t>021039</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>大成沪深300指数C</t>
+          <t>银华沪深300价值ETF发起式联接C</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2019-03-11</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2085,20 +2105,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>021635</t>
+          <t>021038</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>人保沪深300C</t>
+          <t>银华沪深300价值ETF发起式联接A</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-12-24</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2110,22 +2130,18 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>015279</t>
+          <t>008291</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>东财沪深300C</t>
+          <t>民生加银沪深300ETF联接A</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2022-03-15</t>
-        </is>
-      </c>
+        <v>0.49</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -2135,20 +2151,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>165515</t>
+          <t>015279</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>中信保诚沪深300指数(LOF)A</t>
+          <t>东财沪深300C</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2012-02-01</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2160,18 +2176,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>008291</t>
+          <t>008927</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>民生加银沪深300ETF联接A</t>
+          <t>泰康沪深300ETF联接C</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>0.49</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -2181,20 +2201,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>008926</t>
+          <t>021635</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>泰康沪深300ETF联接A</t>
+          <t>人保沪深300C</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2206,20 +2226,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>005867</t>
+          <t>007096</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>国泰沪深300指数C</t>
+          <t>大成沪深300指数C</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2018-04-16</t>
+          <t>2019-03-11</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2231,12 +2251,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>163821</t>
+          <t>008926</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>中银沪深300等权重指数</t>
+          <t>泰康沪深300ETF联接A</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2244,7 +2264,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2012-05-17</t>
+          <t>2020-06-30</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2256,20 +2276,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>023423</t>
+          <t>163821</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>东财沪深300E</t>
+          <t>中银沪深300等权重指数</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2012-05-17</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2281,20 +2301,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>015278</t>
+          <t>005867</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>东财沪深300A</t>
+          <t>国泰沪深300指数C</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2022-03-15</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2306,18 +2326,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>022600</t>
+          <t>015906</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>博时沪深300ETF发起式联接C</t>
+          <t>兴业沪深300ETF发起联接A</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>0.42</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -2327,20 +2351,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>015906</t>
+          <t>015278</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>兴业沪深300ETF发起联接A</t>
+          <t>东财沪深300A</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2022-03-15</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2361,7 +2385,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2377,20 +2401,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>005152</t>
+          <t>022983</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>农银沪深300指数C</t>
+          <t>华夏沪深300ETF联接Y</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2018-03-21</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2402,18 +2426,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>022599</t>
+          <t>022928</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>博时沪深300ETF发起式联接A</t>
+          <t>易方达沪深300ETF联接Y</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>0.27</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -2423,20 +2451,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>021832</t>
+          <t>022599</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>富国沪深300ETF发起式联接A</t>
+          <t>博时沪深300ETF发起式联接A</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-09-27</t>
+          <t>2025-01-14</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2457,7 +2485,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
@@ -2469,20 +2497,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>740101</t>
+          <t>021832</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>长安沪深300非周期A</t>
+          <t>富国沪深300ETF发起式联接A</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2024-09-27</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2494,20 +2522,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>015907</t>
+          <t>022897</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>兴业沪深300ETF发起联接C</t>
+          <t>嘉实沪深300红利低波动ETF联接Y</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2022-08-30</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2519,20 +2547,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>021494</t>
+          <t>740101</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>长盛沪深300指数(LOF)C</t>
+          <t>长安沪深300非周期A</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2012-06-25</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2553,7 +2581,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2569,20 +2597,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>020868</t>
+          <t>022948</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>华夏沪深300ESG基准ETF发起式联接A</t>
+          <t>华泰柏瑞沪深300ETF联接Y</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2594,20 +2622,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>017997</t>
+          <t>015907</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>万家沪深300成长ETF发起式联接C</t>
+          <t>兴业沪深300ETF发起联接C</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>2022-08-30</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2619,18 +2647,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>022504</t>
+          <t>022600</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>招商沪深300ETF发起式联接A</t>
+          <t>博时沪深300ETF发起式联接C</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025-01-14</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -2640,20 +2672,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>021254</t>
+          <t>017997</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>富国沪深300ESG基准ETF发起式联接A</t>
+          <t>万家沪深300成长ETF发起式联接C</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2665,20 +2697,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>022983</t>
+          <t>020868</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接Y</t>
+          <t>华夏沪深300ESG基准ETF发起式联接A</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2690,18 +2722,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>022860</t>
+          <t>022890</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>中银沪深300指数C</t>
+          <t>嘉实沪深300ETF联接(LOF)Y</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
+        <v>0.14</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2024-12-18</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -2711,20 +2747,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>022928</t>
+          <t>022504</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>易方达沪深300ETF联接Y</t>
+          <t>招商沪深300ETF发起式联接A</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2736,20 +2772,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>022948</t>
+          <t>021254</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>华泰柏瑞沪深300ETF联接Y</t>
+          <t>富国沪深300ESG基准ETF发起式联接A</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -2761,16 +2797,16 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>022897</t>
+          <t>022935</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF联接Y</t>
+          <t>工银沪深300指数Y</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2795,7 +2831,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2811,20 +2847,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>020869</t>
+          <t>022860</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>华夏沪深300ESG基准ETF发起式联接C</t>
+          <t>中银沪深300指数C</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2025-01-07</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -2836,20 +2872,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>022890</t>
+          <t>022964</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>嘉实沪深300ETF联接(LOF)Y</t>
+          <t>广发沪深300ETF联接Y</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-12-18</t>
+          <t>2024-12-13</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2861,16 +2897,16 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>022935</t>
+          <t>022922</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>工银沪深300指数Y</t>
+          <t>博时沪深300指数Y</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2886,18 +2922,22 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>022505</t>
+          <t>022936</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>招商沪深300ETF发起式联接C</t>
+          <t>国泰沪深300指数Y</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D101" t="inlineStr"/>
+        <v>0.03</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2024-12-12</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>被动指数型</t>
@@ -2907,20 +2947,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>022936</t>
+          <t>022699</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>国泰沪深300指数Y</t>
+          <t>华泰柏瑞沪深300ETF联接I</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-12-12</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -2932,20 +2972,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>017040</t>
+          <t>020869</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>长安沪深300非周期C</t>
+          <t>华夏沪深300ESG基准ETF发起式联接C</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2022-11-14</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -2957,16 +2997,16 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>022922</t>
+          <t>022924</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>博时沪深300指数Y</t>
+          <t>南方沪深300ETF联接Y</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2982,20 +3022,20 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>021255</t>
+          <t>022505</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>富国沪深300ESG基准ETF发起式联接C</t>
+          <t>招商沪深300ETF发起式联接C</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-11-15</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3007,20 +3047,20 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>022955</t>
+          <t>021255</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>天弘沪深300ETF联接Y</t>
+          <t>富国沪深300ESG基准ETF发起式联接C</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3032,16 +3072,16 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>022964</t>
+          <t>022955</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>广发沪深300ETF联接Y</t>
+          <t>天弘沪深300ETF联接Y</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3057,20 +3097,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>022924</t>
+          <t>023423</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>南方沪深300ETF联接Y</t>
+          <t>东财沪深300E</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-12-13</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3082,12 +3122,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>022699</t>
+          <t>017040</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>华泰柏瑞沪深300ETF联接I</t>
+          <t>长安沪深300非周期C</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -3095,7 +3135,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2022-11-14</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3140,8 +3180,14 @@
           <t>中欧沪深300指数发起Y</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>被动指数型</t>
